--- a/Source/命名規則.xlsx
+++ b/Source/命名規則.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohs45025\Documents\ev3\UML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohs45025\Desktop\ETrobocon\2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
   <si>
     <t>ETロボコン命名規約</t>
     <rPh sb="6" eb="8">
@@ -1138,274 +1138,6 @@
     </rPh>
     <rPh sb="37" eb="40">
       <t>オオモジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>#define PWM_NORMAL_PAR        (            100 )    /* 標準出力          */</t>
-    <rPh sb="55" eb="57">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>シュツ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>リョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>列挙体</t>
-    <rPh sb="0" eb="2">
-      <t>レッキョ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>タイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>例：</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>const int8_t STATE_IS_INITIALIZED = 0x00;            /* 初期状態          */</t>
-    <rPh sb="56" eb="58">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>列挙体</t>
-    <rPh sb="0" eb="2">
-      <t>レッキョ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>タイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.列挙体名は全て大文字で記述する</t>
-    <rPh sb="2" eb="4">
-      <t>レッキョ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>オオモジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2.列挙体名に二つ以上の意味の文字列が続く時は二つ目以降の文字列との間に「_」を用いる</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>モチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3.列挙体名は10文字以内とする。これに納まるように各文字列を省略することを許容する</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オサ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショウリャク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>キョヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>enum State {</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> };</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    WALKING</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5.4条件の適用により文字数が10文字を超えることを許容する</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>テキヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キョヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4.列挙体に任意に数値を指定している場合は末尾に「_」付与の後指定した数値を記述する</t>
-    <rPh sb="2" eb="4">
-      <t>レッキョ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>マツビ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>フヨ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ノチ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    UNDEFINED_0 = 0,</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    WAITING_0x01 = 0x01,</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6.列挙体の任意の数値指定はその指定値と名称が完全に一致することを保証しなければならない</t>
-    <rPh sb="2" eb="4">
-      <t>レッキョ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カンゼン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ホショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1763,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1813,655 +1545,570 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+    <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
         <v>64</v>
       </c>
       <c r="D70" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
         <v>66</v>
       </c>
       <c r="D73" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" t="s">
-        <v>66</v>
-      </c>
-      <c r="D74" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="s">
+    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="B94" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B99" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>90</v>
+      </c>
+      <c r="C103" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B104" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C104" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
-        <v>43</v>
-      </c>
-      <c r="B105" t="s">
-        <v>91</v>
-      </c>
-      <c r="C105" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
+    <row r="106" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A113" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A116" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A119" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A120" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A121" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A122" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A123" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A126" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A127" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A128" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A129" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A130" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A131" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
